--- a/Files/katalon_test_DataDrivenTestDemo.xlsx
+++ b/Files/katalon_test_DataDrivenTestDemo.xlsx
@@ -33,9 +33,6 @@
     <t>Capital</t>
   </si>
   <si>
-    <t>New Dehli</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Dong</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -420,10 +420,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,10 +431,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,10 +442,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
